--- a/data-raw/IPC.xlsx
+++ b/data-raw/IPC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ceu365-my.sharepoint.com/personal/garcen_ceu_es/Documents/MASTER SERIES TEMPORALES-UCLM/LIBRO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ceu365-my.sharepoint.com/personal/garcen_ceu_es/Documents/Escritorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17E4199A-D621-47BE-B517-101CEB504A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{618DE22B-D559-49E1-9D9B-39BCBCA3756C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1120" windowWidth="9690" windowHeight="9680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -33,9 +33,741 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">  IPC</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
+  <si>
+    <t>ipc</t>
+  </si>
+  <si>
+    <t>2002-01-01</t>
+  </si>
+  <si>
+    <t>2002-02-01</t>
+  </si>
+  <si>
+    <t>2002-03-01</t>
+  </si>
+  <si>
+    <t>2002-04-01</t>
+  </si>
+  <si>
+    <t>2002-05-01</t>
+  </si>
+  <si>
+    <t>2002-06-01</t>
+  </si>
+  <si>
+    <t>2002-07-01</t>
+  </si>
+  <si>
+    <t>2002-08-01</t>
+  </si>
+  <si>
+    <t>2002-09-01</t>
+  </si>
+  <si>
+    <t>2002-10-01</t>
+  </si>
+  <si>
+    <t>2002-11-01</t>
+  </si>
+  <si>
+    <t>2002-12-01</t>
+  </si>
+  <si>
+    <t>2003-01-01</t>
+  </si>
+  <si>
+    <t>2003-02-01</t>
+  </si>
+  <si>
+    <t>2003-03-01</t>
+  </si>
+  <si>
+    <t>2003-04-01</t>
+  </si>
+  <si>
+    <t>2003-05-01</t>
+  </si>
+  <si>
+    <t>2003-06-01</t>
+  </si>
+  <si>
+    <t>2003-07-01</t>
+  </si>
+  <si>
+    <t>2003-08-01</t>
+  </si>
+  <si>
+    <t>2003-09-01</t>
+  </si>
+  <si>
+    <t>2003-10-01</t>
+  </si>
+  <si>
+    <t>2003-11-01</t>
+  </si>
+  <si>
+    <t>2003-12-01</t>
+  </si>
+  <si>
+    <t>2004-01-01</t>
+  </si>
+  <si>
+    <t>2004-02-01</t>
+  </si>
+  <si>
+    <t>2004-03-01</t>
+  </si>
+  <si>
+    <t>2004-04-01</t>
+  </si>
+  <si>
+    <t>2004-05-01</t>
+  </si>
+  <si>
+    <t>2004-06-01</t>
+  </si>
+  <si>
+    <t>2004-07-01</t>
+  </si>
+  <si>
+    <t>2004-08-01</t>
+  </si>
+  <si>
+    <t>2004-09-01</t>
+  </si>
+  <si>
+    <t>2004-10-01</t>
+  </si>
+  <si>
+    <t>2004-11-01</t>
+  </si>
+  <si>
+    <t>2004-12-01</t>
+  </si>
+  <si>
+    <t>2005-01-01</t>
+  </si>
+  <si>
+    <t>2005-02-01</t>
+  </si>
+  <si>
+    <t>2005-03-01</t>
+  </si>
+  <si>
+    <t>2005-04-01</t>
+  </si>
+  <si>
+    <t>2005-05-01</t>
+  </si>
+  <si>
+    <t>2005-06-01</t>
+  </si>
+  <si>
+    <t>2005-07-01</t>
+  </si>
+  <si>
+    <t>2005-08-01</t>
+  </si>
+  <si>
+    <t>2005-09-01</t>
+  </si>
+  <si>
+    <t>2005-10-01</t>
+  </si>
+  <si>
+    <t>2005-11-01</t>
+  </si>
+  <si>
+    <t>2005-12-01</t>
+  </si>
+  <si>
+    <t>2006-01-01</t>
+  </si>
+  <si>
+    <t>2006-02-01</t>
+  </si>
+  <si>
+    <t>2006-03-01</t>
+  </si>
+  <si>
+    <t>2006-04-01</t>
+  </si>
+  <si>
+    <t>2006-05-01</t>
+  </si>
+  <si>
+    <t>2006-06-01</t>
+  </si>
+  <si>
+    <t>2006-07-01</t>
+  </si>
+  <si>
+    <t>2006-08-01</t>
+  </si>
+  <si>
+    <t>2006-09-01</t>
+  </si>
+  <si>
+    <t>2006-10-01</t>
+  </si>
+  <si>
+    <t>2006-11-01</t>
+  </si>
+  <si>
+    <t>2006-12-01</t>
+  </si>
+  <si>
+    <t>2007-01-01</t>
+  </si>
+  <si>
+    <t>2007-02-01</t>
+  </si>
+  <si>
+    <t>2007-03-01</t>
+  </si>
+  <si>
+    <t>2007-04-01</t>
+  </si>
+  <si>
+    <t>2007-05-01</t>
+  </si>
+  <si>
+    <t>2007-06-01</t>
+  </si>
+  <si>
+    <t>2007-07-01</t>
+  </si>
+  <si>
+    <t>2007-08-01</t>
+  </si>
+  <si>
+    <t>2007-09-01</t>
+  </si>
+  <si>
+    <t>2007-10-01</t>
+  </si>
+  <si>
+    <t>2007-11-01</t>
+  </si>
+  <si>
+    <t>2007-12-01</t>
+  </si>
+  <si>
+    <t>2008-01-01</t>
+  </si>
+  <si>
+    <t>2008-02-01</t>
+  </si>
+  <si>
+    <t>2008-03-01</t>
+  </si>
+  <si>
+    <t>2008-04-01</t>
+  </si>
+  <si>
+    <t>2008-05-01</t>
+  </si>
+  <si>
+    <t>2008-06-01</t>
+  </si>
+  <si>
+    <t>2008-07-01</t>
+  </si>
+  <si>
+    <t>2008-08-01</t>
+  </si>
+  <si>
+    <t>2008-09-01</t>
+  </si>
+  <si>
+    <t>2008-10-01</t>
+  </si>
+  <si>
+    <t>2008-11-01</t>
+  </si>
+  <si>
+    <t>2008-12-01</t>
+  </si>
+  <si>
+    <t>2009-01-01</t>
+  </si>
+  <si>
+    <t>2009-02-01</t>
+  </si>
+  <si>
+    <t>2009-03-01</t>
+  </si>
+  <si>
+    <t>2009-04-01</t>
+  </si>
+  <si>
+    <t>2009-05-01</t>
+  </si>
+  <si>
+    <t>2009-06-01</t>
+  </si>
+  <si>
+    <t>2009-07-01</t>
+  </si>
+  <si>
+    <t>2009-08-01</t>
+  </si>
+  <si>
+    <t>2009-09-01</t>
+  </si>
+  <si>
+    <t>2009-10-01</t>
+  </si>
+  <si>
+    <t>2009-11-01</t>
+  </si>
+  <si>
+    <t>2009-12-01</t>
+  </si>
+  <si>
+    <t>2010-01-01</t>
+  </si>
+  <si>
+    <t>2010-02-01</t>
+  </si>
+  <si>
+    <t>2010-03-01</t>
+  </si>
+  <si>
+    <t>2010-04-01</t>
+  </si>
+  <si>
+    <t>2010-05-01</t>
+  </si>
+  <si>
+    <t>2010-06-01</t>
+  </si>
+  <si>
+    <t>2010-07-01</t>
+  </si>
+  <si>
+    <t>2010-08-01</t>
+  </si>
+  <si>
+    <t>2010-09-01</t>
+  </si>
+  <si>
+    <t>2010-10-01</t>
+  </si>
+  <si>
+    <t>2010-11-01</t>
+  </si>
+  <si>
+    <t>2010-12-01</t>
+  </si>
+  <si>
+    <t>2011-01-01</t>
+  </si>
+  <si>
+    <t>2011-02-01</t>
+  </si>
+  <si>
+    <t>2011-03-01</t>
+  </si>
+  <si>
+    <t>2011-04-01</t>
+  </si>
+  <si>
+    <t>2011-05-01</t>
+  </si>
+  <si>
+    <t>2011-06-01</t>
+  </si>
+  <si>
+    <t>2011-07-01</t>
+  </si>
+  <si>
+    <t>2011-08-01</t>
+  </si>
+  <si>
+    <t>2011-09-01</t>
+  </si>
+  <si>
+    <t>2011-10-01</t>
+  </si>
+  <si>
+    <t>2011-11-01</t>
+  </si>
+  <si>
+    <t>2011-12-01</t>
+  </si>
+  <si>
+    <t>2012-01-01</t>
+  </si>
+  <si>
+    <t>2012-02-01</t>
+  </si>
+  <si>
+    <t>2012-03-01</t>
+  </si>
+  <si>
+    <t>2012-04-01</t>
+  </si>
+  <si>
+    <t>2012-05-01</t>
+  </si>
+  <si>
+    <t>2012-06-01</t>
+  </si>
+  <si>
+    <t>2012-07-01</t>
+  </si>
+  <si>
+    <t>2012-08-01</t>
+  </si>
+  <si>
+    <t>2012-09-01</t>
+  </si>
+  <si>
+    <t>2012-10-01</t>
+  </si>
+  <si>
+    <t>2012-11-01</t>
+  </si>
+  <si>
+    <t>2012-12-01</t>
+  </si>
+  <si>
+    <t>2013-01-01</t>
+  </si>
+  <si>
+    <t>2013-02-01</t>
+  </si>
+  <si>
+    <t>2013-03-01</t>
+  </si>
+  <si>
+    <t>2013-04-01</t>
+  </si>
+  <si>
+    <t>2013-05-01</t>
+  </si>
+  <si>
+    <t>2013-06-01</t>
+  </si>
+  <si>
+    <t>2013-07-01</t>
+  </si>
+  <si>
+    <t>2013-08-01</t>
+  </si>
+  <si>
+    <t>2013-09-01</t>
+  </si>
+  <si>
+    <t>2013-10-01</t>
+  </si>
+  <si>
+    <t>2013-11-01</t>
+  </si>
+  <si>
+    <t>2013-12-01</t>
+  </si>
+  <si>
+    <t>2014-01-01</t>
+  </si>
+  <si>
+    <t>2014-02-01</t>
+  </si>
+  <si>
+    <t>2014-03-01</t>
+  </si>
+  <si>
+    <t>2014-04-01</t>
+  </si>
+  <si>
+    <t>2014-05-01</t>
+  </si>
+  <si>
+    <t>2014-06-01</t>
+  </si>
+  <si>
+    <t>2014-07-01</t>
+  </si>
+  <si>
+    <t>2014-08-01</t>
+  </si>
+  <si>
+    <t>2014-09-01</t>
+  </si>
+  <si>
+    <t>2014-10-01</t>
+  </si>
+  <si>
+    <t>2014-11-01</t>
+  </si>
+  <si>
+    <t>2014-12-01</t>
+  </si>
+  <si>
+    <t>2015-01-01</t>
+  </si>
+  <si>
+    <t>2015-02-01</t>
+  </si>
+  <si>
+    <t>2015-03-01</t>
+  </si>
+  <si>
+    <t>2015-04-01</t>
+  </si>
+  <si>
+    <t>2015-05-01</t>
+  </si>
+  <si>
+    <t>2015-06-01</t>
+  </si>
+  <si>
+    <t>2015-07-01</t>
+  </si>
+  <si>
+    <t>2015-08-01</t>
+  </si>
+  <si>
+    <t>2015-09-01</t>
+  </si>
+  <si>
+    <t>2015-10-01</t>
+  </si>
+  <si>
+    <t>2015-11-01</t>
+  </si>
+  <si>
+    <t>2015-12-01</t>
+  </si>
+  <si>
+    <t>2016-01-01</t>
+  </si>
+  <si>
+    <t>2016-02-01</t>
+  </si>
+  <si>
+    <t>2016-03-01</t>
+  </si>
+  <si>
+    <t>2016-04-01</t>
+  </si>
+  <si>
+    <t>2016-05-01</t>
+  </si>
+  <si>
+    <t>2016-06-01</t>
+  </si>
+  <si>
+    <t>2016-07-01</t>
+  </si>
+  <si>
+    <t>2016-08-01</t>
+  </si>
+  <si>
+    <t>2016-09-01</t>
+  </si>
+  <si>
+    <t>2016-10-01</t>
+  </si>
+  <si>
+    <t>2016-11-01</t>
+  </si>
+  <si>
+    <t>2016-12-01</t>
+  </si>
+  <si>
+    <t>2017-01-01</t>
+  </si>
+  <si>
+    <t>2017-02-01</t>
+  </si>
+  <si>
+    <t>2017-03-01</t>
+  </si>
+  <si>
+    <t>2017-04-01</t>
+  </si>
+  <si>
+    <t>2017-05-01</t>
+  </si>
+  <si>
+    <t>2017-06-01</t>
+  </si>
+  <si>
+    <t>2017-07-01</t>
+  </si>
+  <si>
+    <t>2017-08-01</t>
+  </si>
+  <si>
+    <t>2017-09-01</t>
+  </si>
+  <si>
+    <t>2017-10-01</t>
+  </si>
+  <si>
+    <t>2017-11-01</t>
+  </si>
+  <si>
+    <t>2017-12-01</t>
+  </si>
+  <si>
+    <t>2018-01-01</t>
+  </si>
+  <si>
+    <t>2018-02-01</t>
+  </si>
+  <si>
+    <t>2018-03-01</t>
+  </si>
+  <si>
+    <t>2018-04-01</t>
+  </si>
+  <si>
+    <t>2018-05-01</t>
+  </si>
+  <si>
+    <t>2018-06-01</t>
+  </si>
+  <si>
+    <t>2018-07-01</t>
+  </si>
+  <si>
+    <t>2018-08-01</t>
+  </si>
+  <si>
+    <t>2018-09-01</t>
+  </si>
+  <si>
+    <t>2018-10-01</t>
+  </si>
+  <si>
+    <t>2018-11-01</t>
+  </si>
+  <si>
+    <t>2018-12-01</t>
+  </si>
+  <si>
+    <t>2019-01-01</t>
+  </si>
+  <si>
+    <t>2019-02-01</t>
+  </si>
+  <si>
+    <t>2019-03-01</t>
+  </si>
+  <si>
+    <t>2019-04-01</t>
+  </si>
+  <si>
+    <t>2019-05-01</t>
+  </si>
+  <si>
+    <t>2019-06-01</t>
+  </si>
+  <si>
+    <t>2019-07-01</t>
+  </si>
+  <si>
+    <t>2019-08-01</t>
+  </si>
+  <si>
+    <t>2019-09-01</t>
+  </si>
+  <si>
+    <t>2019-10-01</t>
+  </si>
+  <si>
+    <t>2019-11-01</t>
+  </si>
+  <si>
+    <t>2019-12-01</t>
+  </si>
+  <si>
+    <t>2020-01-01</t>
+  </si>
+  <si>
+    <t>2020-02-01</t>
+  </si>
+  <si>
+    <t>2020-03-01</t>
+  </si>
+  <si>
+    <t>2020-04-01</t>
+  </si>
+  <si>
+    <t>2020-05-01</t>
+  </si>
+  <si>
+    <t>2020-06-01</t>
+  </si>
+  <si>
+    <t>2020-07-01</t>
+  </si>
+  <si>
+    <t>2020-08-01</t>
+  </si>
+  <si>
+    <t>2020-09-01</t>
+  </si>
+  <si>
+    <t>2020-10-01</t>
+  </si>
+  <si>
+    <t>2020-11-01</t>
+  </si>
+  <si>
+    <t>2020-12-01</t>
+  </si>
+  <si>
+    <t>2021-01-01</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>2021-03-01</t>
+  </si>
+  <si>
+    <t>2021-04-01</t>
+  </si>
+  <si>
+    <t>2021-05-01</t>
+  </si>
+  <si>
+    <t>2021-06-01</t>
+  </si>
+  <si>
+    <t>2021-07-01</t>
+  </si>
+  <si>
+    <t>2021-08-01</t>
+  </si>
+  <si>
+    <t>2021-09-01</t>
+  </si>
+  <si>
+    <t>2021-10-01</t>
+  </si>
+  <si>
+    <t>2021-11-01</t>
+  </si>
+  <si>
+    <t>2021-12-01</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
+    <t>2022-02-01</t>
+  </si>
+  <si>
+    <t>2022-03-01</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -45,7 +777,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -63,6 +795,12 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -432,1253 +1170,1985 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54871375-9477-4912-A107-3B83ED50070A}">
-  <dimension ref="A1:A249"/>
+  <dimension ref="A1:B249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="B248" sqref="B248"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.54296875" customWidth="1"/>
+    <col min="2" max="2" width="7.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
         <v>69.53</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
         <v>69.59</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
         <v>70.165000000000006</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
         <v>71.117999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
         <v>71.373999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
         <v>71.376999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
         <v>70.882000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
         <v>71.084999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
         <v>71.350999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
         <v>72.058000000000007</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
         <v>72.168999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
         <v>72.409000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
         <v>72.111000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
         <v>72.263999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
         <v>72.765000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
         <v>73.356999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
         <v>73.289000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
         <v>73.337999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
         <v>72.878</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
         <v>73.212999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
         <v>73.430999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
         <v>73.926000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
         <v>74.167000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
         <v>74.293999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
         <v>73.772999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
         <v>73.807000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
         <v>74.322000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
         <v>75.34</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
         <v>75.784000000000006</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
         <v>75.903999999999996</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
         <v>75.328000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
         <v>75.661000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
         <v>75.796000000000006</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
         <v>76.575000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
         <v>76.766999999999996</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
         <v>76.691999999999993</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
         <v>76.046000000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2">
         <v>76.242999999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2">
         <v>76.846000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" s="2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2">
         <v>77.953000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
         <v>78.102000000000004</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" s="2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2">
         <v>78.284000000000006</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" s="2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2">
         <v>77.805000000000007</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" s="2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
         <v>78.147000000000006</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2">
         <v>78.626999999999995</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" s="2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2">
         <v>79.266000000000005</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" s="2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2">
         <v>79.385999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2">
         <v>79.557000000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2">
         <v>79.233999999999995</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2">
         <v>79.272000000000006</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2">
         <v>79.832999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" s="2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2">
         <v>80.959000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" s="2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2">
         <v>81.251000000000005</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" s="2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2">
         <v>81.373999999999995</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" s="2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2">
         <v>80.89</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" s="2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2">
         <v>81.055000000000007</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" s="2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2">
         <v>80.921999999999997</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" s="2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2">
         <v>81.254000000000005</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" s="2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2">
         <v>81.454999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" s="2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2">
         <v>81.677999999999997</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" s="2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2">
         <v>81.129000000000005</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" s="2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2">
         <v>81.183999999999997</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" s="2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2">
         <v>81.8</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" s="2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2">
         <v>82.93</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" s="2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2">
         <v>83.158000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" s="2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2">
         <v>83.311000000000007</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" s="2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2">
         <v>82.703999999999994</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" s="2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2">
         <v>82.817999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" s="2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2">
         <v>83.09</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" s="2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2">
         <v>84.167000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" s="2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2">
         <v>84.77</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" s="2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2">
         <v>85.125</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" s="2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2">
         <v>84.597999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" s="2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2">
         <v>84.73</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" s="2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2">
         <v>85.481999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" s="2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2">
         <v>86.402000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" s="2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2">
         <v>86.984999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" s="2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2">
         <v>87.486000000000004</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" s="2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2">
         <v>87.066000000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" s="2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2">
         <v>86.879000000000005</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" s="2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2">
         <v>86.861000000000004</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" s="2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2">
         <v>87.16</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" s="2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2">
         <v>86.79</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" s="2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2">
         <v>86.344999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" s="2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2">
         <v>85.281000000000006</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" s="2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2">
         <v>85.29</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" s="2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2">
         <v>85.43</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" s="2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2">
         <v>86.263999999999996</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" s="2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2">
         <v>86.233999999999995</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" s="2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2">
         <v>86.614000000000004</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92" s="2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2">
         <v>85.873999999999995</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" s="2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2">
         <v>86.174000000000007</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94" s="2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" s="2">
         <v>85.971000000000004</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" s="2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95" s="2">
         <v>86.584000000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96" s="2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2">
         <v>87.052999999999997</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" s="2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2">
         <v>87.031000000000006</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" s="2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98" s="2">
         <v>86.158000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" s="2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" s="2">
         <v>86.001000000000005</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" s="2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100" s="2">
         <v>86.638999999999996</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" s="2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" s="2">
         <v>87.561999999999998</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" s="2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" s="2">
         <v>87.756</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" s="2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" s="2">
         <v>87.912999999999997</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104" s="2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" s="2">
         <v>87.519000000000005</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" s="2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" s="2">
         <v>87.74</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" s="2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" s="2">
         <v>87.801000000000002</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" s="2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107" s="2">
         <v>88.602999999999994</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" s="2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" s="2">
         <v>89.084000000000003</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" s="2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" s="2">
         <v>89.631</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" s="2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110" s="2">
         <v>88.974999999999994</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111" s="2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111" s="2">
         <v>89.087999999999994</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A112" s="2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112" s="2">
         <v>89.754000000000005</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" s="2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" s="2">
         <v>90.870999999999995</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" s="2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114" s="2">
         <v>90.840999999999994</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" s="2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" s="2">
         <v>90.712999999999994</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" s="2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" s="2">
         <v>90.225999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" s="2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" s="2">
         <v>90.337999999999994</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A118" s="2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118" s="2">
         <v>90.558999999999997</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A119" s="2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" s="2">
         <v>91.272999999999996</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A120" s="2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" s="2">
         <v>91.643000000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121" s="2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" s="2">
         <v>91.762</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A122" s="2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" s="2">
         <v>90.753</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A123" s="2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123" s="2">
         <v>90.846999999999994</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A124" s="2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" s="2">
         <v>91.457999999999998</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A125" s="2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125" s="2">
         <v>92.742999999999995</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A126" s="2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126" s="2">
         <v>92.605999999999995</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A127" s="2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127" s="2">
         <v>92.433000000000007</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A128" s="2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128" s="2">
         <v>92.216999999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A129" s="2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129" s="2">
         <v>92.736000000000004</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130" s="2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130" s="2">
         <v>93.649000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131" s="2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131" s="2">
         <v>94.444999999999993</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132" s="2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" s="2">
         <v>94.328000000000003</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133" s="2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" s="2">
         <v>94.394000000000005</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134" s="2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" s="2">
         <v>93.188000000000002</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135" s="2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135" s="2">
         <v>93.349000000000004</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A136" s="2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" s="2">
         <v>93.677999999999997</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A137" s="2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" s="2">
         <v>94.028000000000006</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A138" s="2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138" s="2">
         <v>94.200999999999993</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139" s="2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139" s="2">
         <v>94.34</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140" s="2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140" s="2">
         <v>93.852999999999994</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A141" s="2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" s="2">
         <v>94.144999999999996</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A142" s="2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142" s="2">
         <v>93.968999999999994</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A143" s="2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143" s="2">
         <v>94.350999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A144" s="2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" s="2">
         <v>94.546999999999997</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A145" s="2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>144</v>
+      </c>
+      <c r="B145" s="2">
         <v>94.632000000000005</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146" s="2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>145</v>
+      </c>
+      <c r="B146" s="2">
         <v>93.373000000000005</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A147" s="2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" s="2">
         <v>93.332999999999998</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A148" s="2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>147</v>
+      </c>
+      <c r="B148" s="2">
         <v>93.540999999999997</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A149" s="2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149" s="2">
         <v>94.373000000000005</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A150" s="2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>149</v>
+      </c>
+      <c r="B150" s="2">
         <v>94.394999999999996</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A151" s="2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151" s="2">
         <v>94.421000000000006</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A152" s="2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+      <c r="B152" s="2">
         <v>93.533000000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A153" s="2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>152</v>
+      </c>
+      <c r="B153" s="2">
         <v>93.680999999999997</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A154" s="2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>153</v>
+      </c>
+      <c r="B154" s="2">
         <v>93.823999999999998</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A155" s="2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>154</v>
+      </c>
+      <c r="B155" s="2">
         <v>94.260999999999996</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A156" s="2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>155</v>
+      </c>
+      <c r="B156" s="2">
         <v>94.194999999999993</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A157" s="2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>156</v>
+      </c>
+      <c r="B157" s="2">
         <v>93.646000000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A158" s="2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+      <c r="B158" s="2">
         <v>92.141000000000005</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A159" s="2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>158</v>
+      </c>
+      <c r="B159" s="2">
         <v>92.331000000000003</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A160" s="2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>159</v>
+      </c>
+      <c r="B160" s="2">
         <v>92.92</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A161" s="2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>160</v>
+      </c>
+      <c r="B161" s="2">
         <v>93.774000000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A162" s="2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>161</v>
+      </c>
+      <c r="B162" s="2">
         <v>94.221999999999994</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A163" s="2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>162</v>
+      </c>
+      <c r="B163" s="2">
         <v>94.474000000000004</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A164" s="2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+      <c r="B164" s="2">
         <v>93.596999999999994</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A165" s="2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>164</v>
+      </c>
+      <c r="B165" s="2">
         <v>93.286000000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A166" s="2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>165</v>
+      </c>
+      <c r="B166" s="2">
         <v>92.998999999999995</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A167" s="2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>166</v>
+      </c>
+      <c r="B167" s="2">
         <v>93.594999999999999</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A168" s="2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>167</v>
+      </c>
+      <c r="B168" s="2">
         <v>93.936999999999998</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A169" s="2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>168</v>
+      </c>
+      <c r="B169" s="2">
         <v>93.662999999999997</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A170" s="2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>169</v>
+      </c>
+      <c r="B170" s="2">
         <v>91.876000000000005</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A171" s="2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>170</v>
+      </c>
+      <c r="B171" s="2">
         <v>91.552000000000007</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A172" s="2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>171</v>
+      </c>
+      <c r="B172" s="2">
         <v>92.138999999999996</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A173" s="2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173" s="2">
         <v>92.784999999999997</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A174" s="2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>173</v>
+      </c>
+      <c r="B174" s="2">
         <v>93.292000000000002</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A175" s="2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+      <c r="B175" s="2">
         <v>93.722999999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A176" s="2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>175</v>
+      </c>
+      <c r="B176" s="2">
         <v>93.040999999999997</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A177" s="2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>176</v>
+      </c>
+      <c r="B177" s="2">
         <v>93.161000000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A178" s="2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>177</v>
+      </c>
+      <c r="B178" s="2">
         <v>93.165000000000006</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A179" s="2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>178</v>
+      </c>
+      <c r="B179" s="2">
         <v>94.23</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A180" s="2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>179</v>
+      </c>
+      <c r="B180" s="2">
         <v>94.572000000000003</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A181" s="2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181" s="2">
         <v>95.132000000000005</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A182" s="2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182" s="2">
         <v>94.608999999999995</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A183" s="2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183" s="2">
         <v>94.269000000000005</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A184" s="2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184" s="2">
         <v>94.248999999999995</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A185" s="2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>184</v>
+      </c>
+      <c r="B185" s="2">
         <v>95.153999999999996</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A186" s="2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186" s="2">
         <v>95.096999999999994</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A187" s="2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>186</v>
+      </c>
+      <c r="B187" s="2">
         <v>95.138000000000005</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A188" s="2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>187</v>
+      </c>
+      <c r="B188" s="2">
         <v>94.481999999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A189" s="2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>188</v>
+      </c>
+      <c r="B189" s="2">
         <v>94.67</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A190" s="2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>189</v>
+      </c>
+      <c r="B190" s="2">
         <v>94.834999999999994</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A191" s="2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>190</v>
+      </c>
+      <c r="B191" s="2">
         <v>95.71</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A192" s="2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+      <c r="B192" s="2">
         <v>96.147000000000006</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A193" s="2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193" s="2">
         <v>96.19</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A194" s="2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194" s="2">
         <v>95.153000000000006</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A195" s="2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195" s="2">
         <v>95.281000000000006</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A196" s="2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>195</v>
+      </c>
+      <c r="B196" s="2">
         <v>95.393000000000001</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A197" s="2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>196</v>
+      </c>
+      <c r="B197" s="2">
         <v>96.180999999999997</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A198" s="2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198" s="2">
         <v>97.048000000000002</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A199" s="2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>198</v>
+      </c>
+      <c r="B199" s="2">
         <v>97.302000000000007</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A200" s="2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200" s="2">
         <v>96.603999999999999</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A201" s="2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201" s="2">
         <v>96.742000000000004</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A202" s="2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>201</v>
+      </c>
+      <c r="B202" s="2">
         <v>96.977999999999994</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A203" s="2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203" s="2">
         <v>97.875</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A204" s="2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>203</v>
+      </c>
+      <c r="B204" s="2">
         <v>97.768000000000001</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A205" s="2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>204</v>
+      </c>
+      <c r="B205" s="2">
         <v>97.328999999999994</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A206" s="2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>205</v>
+      </c>
+      <c r="B206" s="2">
         <v>96.084999999999994</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A207" s="2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>206</v>
+      </c>
+      <c r="B207" s="2">
         <v>96.32</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A208" s="2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>207</v>
+      </c>
+      <c r="B208" s="2">
         <v>96.668999999999997</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A209" s="2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+      <c r="B209" s="2">
         <v>97.644000000000005</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A210" s="2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>209</v>
+      </c>
+      <c r="B210" s="2">
         <v>97.834000000000003</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A211" s="2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>210</v>
+      </c>
+      <c r="B211" s="2">
         <v>97.718999999999994</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A212" s="2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>211</v>
+      </c>
+      <c r="B212" s="2">
         <v>97.113</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A213" s="2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>212</v>
+      </c>
+      <c r="B213" s="2">
         <v>97.058999999999997</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A214" s="2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>213</v>
+      </c>
+      <c r="B214" s="2">
         <v>97.058999999999997</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A215" s="2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>214</v>
+      </c>
+      <c r="B215" s="2">
         <v>98.001000000000005</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A216" s="2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>215</v>
+      </c>
+      <c r="B216" s="2">
         <v>98.167000000000002</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A217" s="2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217" s="2">
         <v>98.096000000000004</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A218" s="2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>217</v>
+      </c>
+      <c r="B218" s="2">
         <v>97.138999999999996</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A219" s="2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>218</v>
+      </c>
+      <c r="B219" s="2">
         <v>97.024000000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A220" s="2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+      <c r="B220" s="2">
         <v>96.652000000000001</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A221" s="2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>220</v>
+      </c>
+      <c r="B221" s="2">
         <v>96.944000000000003</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A222" s="2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>221</v>
+      </c>
+      <c r="B222" s="2">
         <v>96.938000000000002</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A223" s="2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>222</v>
+      </c>
+      <c r="B223" s="2">
         <v>97.385000000000005</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A224" s="2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>223</v>
+      </c>
+      <c r="B224" s="2">
         <v>96.510999999999996</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A225" s="2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>224</v>
+      </c>
+      <c r="B225" s="2">
         <v>96.555000000000007</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A226" s="2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>225</v>
+      </c>
+      <c r="B226" s="2">
         <v>96.7</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A227" s="2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>226</v>
+      </c>
+      <c r="B227" s="2">
         <v>97.207999999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A228" s="2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>227</v>
+      </c>
+      <c r="B228" s="2">
         <v>97.367000000000004</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A229" s="2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>228</v>
+      </c>
+      <c r="B229" s="2">
         <v>97.573999999999998</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A230" s="2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>229</v>
+      </c>
+      <c r="B230" s="2">
         <v>97.582999999999998</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A231" s="2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>230</v>
+      </c>
+      <c r="B231" s="2">
         <v>97.007999999999996</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A232" s="2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
+        <v>231</v>
+      </c>
+      <c r="B232" s="2">
         <v>97.948999999999998</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A233" s="2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>232</v>
+      </c>
+      <c r="B233" s="2">
         <v>99.105000000000004</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A234" s="2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
+        <v>233</v>
+      </c>
+      <c r="B234" s="2">
         <v>99.572000000000003</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A235" s="2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
+        <v>234</v>
+      </c>
+      <c r="B235" s="2">
         <v>100.04600000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A236" s="2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
+        <v>235</v>
+      </c>
+      <c r="B236" s="2">
         <v>99.292000000000002</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A237" s="2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>236</v>
+      </c>
+      <c r="B237" s="2">
         <v>99.742999999999995</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A238" s="2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
+        <v>237</v>
+      </c>
+      <c r="B238" s="2">
         <v>100.575</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A239" s="2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>238</v>
+      </c>
+      <c r="B239" s="2">
         <v>102.425</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A240" s="2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
+        <v>239</v>
+      </c>
+      <c r="B240" s="2">
         <v>102.738</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A241" s="2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>240</v>
+      </c>
+      <c r="B241" s="2">
         <v>103.965</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A242" s="2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>241</v>
+      </c>
+      <c r="B242" s="2">
         <v>103.56699999999999</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A243" s="2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>242</v>
+      </c>
+      <c r="B243" s="2">
         <v>104.40300000000001</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A244" s="2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>243</v>
+      </c>
+      <c r="B244" s="2">
         <v>107.566</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A245" s="2"/>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A246" s="2"/>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A247" s="2"/>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A248" s="2"/>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A249" s="2"/>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B245" s="2"/>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B246" s="2"/>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B247" s="2"/>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B248" s="2"/>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B249" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>